--- a/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
+++ b/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,24 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Nothing2</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>描述</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -104,6 +128,73 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="128"/>
       </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -123,9 +214,6 @@
     <t>复活次数加1</t>
   </si>
   <si>
-    <t>首行的字段不多到这里，所有会被忽略后面的纵列数据</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -155,9 +243,6 @@
     </r>
   </si>
   <si>
-    <t>这里测试、配置说明用</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -368,6 +453,39 @@
     </r>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -439,55 +557,6 @@
   </si>
   <si>
     <t>item1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>首行的字段不多到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>这里，所有会被忽略后面的纵列数据</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>测试、配置说明用</t>
-    </r>
   </si>
   <si>
     <t>item2</t>
@@ -1129,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,7 +1212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1749,20 +1817,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="16379" width="13.625" style="1" customWidth="1"/>
+    <col min="16380" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,235 +1847,290 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="8:9">
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9">
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="I10" s="1">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1">
+        <v>333</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1">
+        <v>444</v>
+      </c>
+      <c r="M10" s="1">
+        <v>55</v>
+      </c>
+      <c r="N10" s="1">
+        <v>66</v>
+      </c>
+      <c r="O10" s="1">
+        <v>77</v>
+      </c>
+      <c r="P10" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="8:9">
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9">
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-6</v>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1"/>
   </sheetData>
@@ -2016,6 +2140,11 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="B7:F7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4:E1048576">
+      <formula1>"低,中,高"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -2025,17 +2154,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="16378" width="13.625" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:6">
@@ -2057,256 +2187,187 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:6">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:8">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:6">
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:6">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:8">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:6">
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:6">
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:6">
@@ -2314,62 +2375,50 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H3:K3"/>
+  <mergeCells count="4">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="H5:K5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>"低,中,高"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
+++ b/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ItemLst_1" sheetId="1" r:id="rId1"/>
-    <sheet name="ItemLst_2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="2" r:id="rId2"/>
+    <sheet name="数据配置表" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +30,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,9 +82,6 @@
     <t>OP2</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -119,6 +135,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -133,6 +155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -147,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -161,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -175,6 +215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -556,6 +602,52 @@
     </r>
   </si>
   <si>
+    <t>测试表</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>测试表说明</t>
+  </si>
+  <si>
+    <r>
+      <t>#字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>起始行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
     <t>item1</t>
   </si>
   <si>
@@ -578,6 +670,21 @@
   </si>
   <si>
     <t>item9</t>
+  </si>
+  <si>
+    <t>数据配置表</t>
+  </si>
+  <si>
+    <t>数据配置表说明</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>EnumGradeType</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1310,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1817,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
@@ -1831,115 +1938,116 @@
     <col min="16380" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1">
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
         <v>999</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1952,196 +2060,206 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="1">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
         <v>11</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>22</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <v>33</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <v>333</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>44</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>444</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>55</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N11" s="1">
         <v>66</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O11" s="1">
         <v>77</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P11" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="1">
+    <row r="12" spans="2:17">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
         <v>99</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
         <v>99</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="1">
+    <row r="17" spans="2:14">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1">
         <v>-1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K17" s="1">
         <v>-4</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="1">
         <v>-6</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
       <formula1>"低,中,高"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2154,10 +2272,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2168,258 +2286,549 @@
     <col min="16379" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:6">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>999</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:6">
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:6">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:6">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:6">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:6">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1">
-        <v>999</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:6">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
-      <c r="B10" s="1">
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:6">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1">
-        <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:6">
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:6">
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:6">
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>58</v>
+      <c r="F28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576">
       <formula1>"低,中,高"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="16378" width="13.625" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1">
+        <v>999</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:6">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:6">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:6">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:6">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="6:6">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:6">
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E11 E12 E7:E8 E9:E10 E13:E1048576">
+      <formula1>"低,中,高"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
+++ b/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ItemLst_1" sheetId="1" r:id="rId1"/>
     <sheet name="测试" sheetId="2" r:id="rId2"/>
     <sheet name="数据配置表" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="资源配置" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,12 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -82,6 +88,9 @@
     <t>OP2</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -605,13 +614,16 @@
     <t>测试表</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>测试表说明</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>#字段</t>
     </r>
     <r>
@@ -626,6 +638,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>#字段</t>
     </r>
     <r>
@@ -685,6 +703,204 @@
   </si>
   <si>
     <t>EnumGradeType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明</t>
+    </r>
+  </si>
+  <si>
+    <t>DirPath</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明</t>
+    </r>
+  </si>
+  <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <r>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源存放文的件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">夹路劲
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[Assets/XXX]</t>
+    </r>
+  </si>
+  <si>
+    <t>tu.png</t>
+  </si>
+  <si>
+    <t>Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Art</t>
+  </si>
+  <si>
+    <t>jin.png</t>
+  </si>
+  <si>
+    <t>Text.prefab</t>
+  </si>
+  <si>
+    <t>mu.png</t>
+  </si>
+  <si>
+    <t>shui.png</t>
+  </si>
+  <si>
+    <t>tu_bmp.bmp</t>
+  </si>
+  <si>
+    <t>tu_jpg.jpg</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1521,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,326 +2155,326 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16379" width="13.625" style="1" customWidth="1"/>
-    <col min="16380" max="16384" width="13.625" style="1"/>
+    <col min="1" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="5" customWidth="1"/>
+    <col min="7" max="16379" width="13.625" style="5" customWidth="1"/>
+    <col min="16380" max="16384" width="13.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>999</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>999</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="I11" s="5">
+        <v>33</v>
+      </c>
+      <c r="J11" s="5">
+        <v>333</v>
+      </c>
+      <c r="K11" s="5">
+        <v>44</v>
+      </c>
+      <c r="L11" s="5">
+        <v>444</v>
+      </c>
+      <c r="M11" s="5">
+        <v>55</v>
+      </c>
+      <c r="N11" s="5">
+        <v>66</v>
+      </c>
+      <c r="O11" s="5">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="1">
+      <c r="B16" s="5">
+        <v>99</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1">
-        <v>333</v>
-      </c>
-      <c r="K11" s="1">
-        <v>44</v>
-      </c>
-      <c r="L11" s="1">
-        <v>444</v>
-      </c>
-      <c r="M11" s="1">
-        <v>55</v>
-      </c>
-      <c r="N11" s="1">
-        <v>66</v>
-      </c>
-      <c r="O11" s="1">
-        <v>77</v>
-      </c>
-      <c r="P11" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>99</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1">
-        <v>99</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5">
         <v>-1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="5">
         <v>-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="5">
         <v>-4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="5">
         <v>-6</v>
       </c>
     </row>
@@ -2280,274 +2508,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16378" width="13.625" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="13.625" style="1"/>
+    <col min="1" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="5" customWidth="1"/>
+    <col min="7" max="16378" width="13.625" style="5" customWidth="1"/>
+    <col min="16379" max="16384" width="13.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="2:6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5">
+        <v>999</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="3:6">
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="2:6">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="2:6">
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5">
+        <v>99</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:6">
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="23" s="5" customFormat="1" spans="2:6">
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="2:6">
+      <c r="B24" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="1:6">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1">
-        <v>999</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:6">
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:6">
-      <c r="B13" s="1">
+      <c r="B28" s="5">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:6">
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:6">
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:6">
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:6">
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2573,242 +2801,242 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16378" width="13.625" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="13.625" style="1"/>
+    <col min="1" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="5" customWidth="1"/>
+    <col min="7" max="16378" width="13.625" style="5" customWidth="1"/>
+    <col min="16379" max="16384" width="13.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1">
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="2:6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>999</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:6">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:6">
-      <c r="B7" s="1">
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="2:6">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="2:6">
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="2:6">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="6:6">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="2:6">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:6">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:6">
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E11 E12 E7:E8 E9:E10 E13:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576">
       <formula1>"低,中,高"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2820,14 +3048,165 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" style="1" customWidth="1"/>
+    <col min="6" max="16381" width="12.625" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="12.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="40" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
+++ b/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ItemLst_1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -421,14 +421,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>如果第2</t>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>恢复生命</t>
     </r>
     <r>
       <rPr>
@@ -437,16 +443,21 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>纵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>列(B列)</t>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
+    <t>清露</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>恢复法力</t>
     </r>
     <r>
       <rPr>
@@ -455,24 +466,54 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>为空或者仅有空格，同样跳过所在整行的数据不读取</t>
-    </r>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>恢复生命</t>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#表格配置数据中</t>
     </r>
     <r>
       <rPr>
@@ -481,21 +522,16 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>值</t>
-    </r>
-  </si>
-  <si>
-    <t>清露</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>恢复法力</t>
+      <t>间空几行或添加符号【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#</t>
     </r>
     <r>
       <rPr>
@@ -504,54 +540,27 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>值</t>
-    </r>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#表格配置数据中</t>
+      <t>】用来说明</t>
+    </r>
+  </si>
+  <si>
+    <t>测试实例</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>解毒丸</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>立即解除中毒状</t>
     </r>
     <r>
       <rPr>
@@ -560,8 +569,104 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>间空几行或添加符号【</t>
-    </r>
+      <t>态</t>
+    </r>
+  </si>
+  <si>
+    <t>测试表</t>
+  </si>
+  <si>
+    <t>测试表说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>起始行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型</t>
+    </r>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>item6</t>
+  </si>
+  <si>
+    <t>item9</t>
+  </si>
+  <si>
+    <t>数据配置表</t>
+  </si>
+  <si>
+    <t>数据配置表说明</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>EnumGradeType</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -578,27 +683,16 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>】用来说明</t>
-    </r>
-  </si>
-  <si>
-    <t>测试实例</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>解毒丸</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立即解除中毒状</t>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
     </r>
     <r>
       <rPr>
@@ -607,14 +701,85 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>态</t>
-    </r>
-  </si>
-  <si>
-    <t>测试表</t>
-  </si>
-  <si>
-    <t>测试表说明</t>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明</t>
+    </r>
+  </si>
+  <si>
+    <t>DirPath</t>
   </si>
   <si>
     <r>
@@ -633,19 +798,22 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>起始行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#字段</t>
-    </r>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明</t>
+    </r>
+  </si>
+  <si>
+    <t>资源名</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -653,200 +821,6 @@
         <rFont val="宋体"/>
         <charset val="128"/>
       </rPr>
-      <t>类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>型</t>
-    </r>
-  </si>
-  <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>item4</t>
-  </si>
-  <si>
-    <t>item5</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>item6</t>
-  </si>
-  <si>
-    <t>item9</t>
-  </si>
-  <si>
-    <t>数据配置表</t>
-  </si>
-  <si>
-    <t>数据配置表说明</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>EnumGradeType</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>资</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>源表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>资</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>源表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>明</t>
-    </r>
-  </si>
-  <si>
-    <t>DirPath</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>明</t>
-    </r>
-  </si>
-  <si>
-    <t>资源名</t>
-  </si>
-  <si>
-    <r>
       <t>资</t>
     </r>
     <r>
@@ -2152,10 +2126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
@@ -2309,176 +2283,168 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="8" t="s">
+    <row r="10" spans="2:16">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <v>22</v>
+      </c>
+      <c r="I10" s="5">
+        <v>33</v>
+      </c>
+      <c r="J10" s="5">
+        <v>333</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44</v>
+      </c>
+      <c r="L10" s="5">
+        <v>444</v>
+      </c>
+      <c r="M10" s="5">
+        <v>55</v>
+      </c>
+      <c r="N10" s="5">
+        <v>66</v>
+      </c>
+      <c r="O10" s="5">
+        <v>77</v>
+      </c>
+      <c r="P10" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5">
-        <v>33</v>
-      </c>
-      <c r="J11" s="5">
-        <v>333</v>
-      </c>
-      <c r="K11" s="5">
-        <v>44</v>
-      </c>
-      <c r="L11" s="5">
-        <v>444</v>
-      </c>
-      <c r="M11" s="5">
-        <v>55</v>
-      </c>
-      <c r="N11" s="5">
-        <v>66</v>
-      </c>
-      <c r="O11" s="5">
-        <v>77</v>
-      </c>
-      <c r="P11" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5">
-        <v>99</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="G16" s="5">
         <v>-1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H16" s="5">
         <v>-2</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K16" s="5">
         <v>-4</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N16" s="5">
         <v>-6</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:F5"/>
@@ -2500,10 +2466,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2519,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2527,12 +2493,12 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -2552,7 +2518,7 @@
     </row>
     <row r="4" s="5" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6"/>
       <c r="E4" s="7"/>
@@ -2582,13 +2548,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5">
         <v>999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -2636,101 +2602,110 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" s="5" customFormat="1" spans="3:6">
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+    <row r="12" s="5" customFormat="1" spans="2:6">
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="2:6">
       <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:6">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="2:6">
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="2:6">
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>99</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="5">
-        <v>99</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="2:6">
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>54</v>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="2:6">
       <c r="B23" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
@@ -2739,44 +2714,27 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="2:6">
-      <c r="B24" s="5">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
+      <c r="E27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2801,8 +2759,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2818,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2826,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:6">
@@ -2854,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:6">
@@ -2894,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5">
         <v>999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -2911,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -2920,7 +2878,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="2:6">
@@ -2928,16 +2886,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:6">
@@ -2948,13 +2906,13 @@
         <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5">
         <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -2965,16 +2923,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="2:6">
@@ -2982,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -2991,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="6:6">
@@ -3002,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
@@ -3011,7 +2969,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:6">
@@ -3022,16 +2980,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3008,7 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3064,12 +3022,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -3084,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -3092,27 +3050,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -3120,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -3131,10 +3089,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -3142,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -3153,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -3164,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
@@ -3178,10 +3136,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -3189,10 +3147,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3200,10 +3158,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
+++ b/Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels/ConfigItems.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ItemLst_1" sheetId="1" r:id="rId1"/>
     <sheet name="测试" sheetId="2" r:id="rId2"/>
     <sheet name="数据配置表" sheetId="4" r:id="rId3"/>
-    <sheet name="资源配置" sheetId="3" r:id="rId4"/>
+    <sheet name="资源配置_Texture2D" sheetId="3" r:id="rId4"/>
+    <sheet name="资源配置_Prefab" sheetId="6" r:id="rId5"/>
+    <sheet name="资源配置_SO" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -875,6 +878,24 @@
   </si>
   <si>
     <t>tu_jpg.jpg</t>
+  </si>
+  <si>
+    <t>Item.cs</t>
+  </si>
+  <si>
+    <t>Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Scripts/Item</t>
+  </si>
+  <si>
+    <t>SO_ItemData.asset</t>
+  </si>
+  <si>
+    <t>Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Excels</t>
+  </si>
+  <si>
+    <t>ExcelExample.cs</t>
+  </si>
+  <si>
+    <t>Assets/Plugins/RGuang/Scripts/ExcelKit/Example/Scripts</t>
   </si>
 </sst>
 </file>
@@ -2759,8 +2780,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3009,7 +3030,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -3095,7 +3116,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:4">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -3117,7 +3141,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:4">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -3142,7 +3169,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:4">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -3168,4 +3198,406 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" style="1" customWidth="1"/>
+    <col min="6" max="16381" width="12.625" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="12.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="40" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" style="1" customWidth="1"/>
+    <col min="6" max="16381" width="12.625" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="12.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="40" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:4">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>